--- a/database_old/Trace_Report_SBHP.xlsx
+++ b/database_old/Trace_Report_SBHP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{568FCBED-0E32-4619-8C97-92DF2A7988A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A796AF-8278-4426-81A8-D826D3E6F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$N$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Initial</t>
   </si>
@@ -68,34 +68,52 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>CGAX</t>
+  </si>
+  <si>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
     <t>BNGX</t>
   </si>
   <si>
-    <t>LA JUNTA</t>
-  </si>
-  <si>
-    <t>CO</t>
+    <t>KANSAS CITY</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
   <si>
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>HKCKDE</t>
+    <t>HLINKC</t>
   </si>
   <si>
     <t>LOVELAND</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>LA SALLE</t>
-  </si>
-  <si>
-    <t>LDI601</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
+    <t>CGEX</t>
+  </si>
+  <si>
+    <t>SHORTLINE YARD</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>LTJ40N</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -107,19 +125,22 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 05:58:12 EDT, by WPJTOWN1.The search returned: 2 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:55:31 EDT, by WPJTOWN1.The search returned: 3 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>BNGX30307</t>
-  </si>
-  <si>
-    <t>UP74772</t>
-  </si>
-  <si>
-    <t>2 CO</t>
+    <t>CGAX10167</t>
+  </si>
+  <si>
+    <t>BNGX30727</t>
+  </si>
+  <si>
+    <t>CGEX1941</t>
+  </si>
+  <si>
+    <t>1 CO</t>
   </si>
 </sst>
 </file>
@@ -262,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9FA459"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,10 +636,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,22 +996,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K4" sqref="K4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -995,12 +1023,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1038,16 +1066,16 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1055,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>30307</v>
+        <v>10167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1064,13 +1092,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2">
-        <v>1442</v>
+        <v>1217</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -1085,73 +1113,118 @@
         <v>12</v>
       </c>
       <c r="L4" s="2">
-        <v>280000</v>
+        <v>273000</v>
       </c>
       <c r="M4" s="2">
-        <v>63900</v>
+        <v>64200</v>
       </c>
       <c r="N4" s="2">
-        <v>216100</v>
+        <v>208800</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1941</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1913</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3">
+        <v>198750</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>198750</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2">
-        <v>74772</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6">
+        <v>30727</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>853</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1458</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="2">
-        <v>185800</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>185800</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
+      <c r="L6">
+        <v>282200</v>
+      </c>
+      <c r="M6">
+        <v>64400</v>
+      </c>
+      <c r="N6">
+        <v>217800</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N5">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N5">
-      <sortCondition ref="D4:D5" customList="CO"/>
-      <sortCondition ref="H4:H5" customList="Placed Actual,Placed Construct"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O6">
+    <sortCondition ref="D4:D6" customList="CO"/>
+    <sortCondition ref="H4:H6" customList="Placed Actual,Placed Construct"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>